--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -271,10 +271,123 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,28 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -317,103 +408,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -436,37 +436,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,145 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +845,15 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,6 +872,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -880,39 +937,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -921,30 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +965,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2041,19 +2041,19 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="1" customWidth="1"/>
   </cols>

--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -179,7 +179,7 @@
     <t>业务员</t>
   </si>
   <si>
-    <t>预付月份</t>
+    <t>预付月数</t>
   </si>
 </sst>
 </file>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -271,6 +271,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -279,72 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -353,41 +379,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,17 +401,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +436,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,13 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +484,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,6 +550,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,19 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,102 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +845,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,6 +868,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,76 +940,11 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +965,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2041,7 +2041,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -192,10 +192,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,8 +279,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,9 +340,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +363,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,20 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -371,43 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -436,6 +444,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,25 +492,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,12 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,72 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,6 +881,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -921,30 +953,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,149 +973,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,142 +1128,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1598,12 +1609,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1624,7 +1635,7 @@
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1640,388 +1651,388 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="14" ht="21" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" ht="18.75" spans="1:8">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" ht="17.25" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" ht="17.25" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" ht="18.75" spans="1:8">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="30"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" ht="17.25" spans="1:8">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" ht="16.5" spans="1:8">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" ht="18.75" spans="1:8">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:8">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="39">
         <v>1</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" ht="17.25" spans="1:8">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="39">
         <v>2</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="39" t="s">
+      <c r="F26" s="39"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:8">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="39">
         <v>3</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="39" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:8">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="39">
         <v>5</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="39" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:8">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="39">
         <v>1</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" ht="17.25" spans="1:8">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="39">
         <v>2</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" ht="17.25" spans="1:8">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="20" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" ht="17.25" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="42"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" ht="16.5" spans="1:8">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" ht="17.25" spans="1:8">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" ht="17.25" spans="1:8">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="45" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="50"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="37" ht="17.25" spans="1:1">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="52" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:1">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2038,55 +2049,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
     </row>

--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -279,6 +279,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,8 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,8 +346,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -311,7 +386,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,103 +416,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -456,175 +456,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,6 +853,80 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,85 +948,11 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,8 +1593,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1863,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="17"/>
@@ -1941,7 +1941,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="17"/>
@@ -1959,7 +1959,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="17"/>
@@ -2051,7 +2051,7 @@
   <sheetPr/>
   <dimension ref="B1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>综合销售提成计划</t>
   </si>
@@ -110,31 +110,10 @@
     <t>其他</t>
   </si>
   <si>
-    <t>安装维护费HY或PC</t>
-  </si>
-  <si>
-    <t>每个新客户</t>
-  </si>
-  <si>
-    <t>预收客户</t>
-  </si>
-  <si>
-    <t>预收3个月以上</t>
-  </si>
-  <si>
-    <t>预收6个月以上</t>
-  </si>
-  <si>
-    <t>预收12个月以上</t>
-  </si>
-  <si>
-    <t>销售拜访表平均每天15条</t>
-  </si>
-  <si>
-    <t>每月</t>
-  </si>
-  <si>
-    <t>销售拜访表平均每天20条</t>
+    <t>安装维护费</t>
+  </si>
+  <si>
+    <t>每个行客户</t>
   </si>
   <si>
     <t>合计</t>
@@ -192,7 +171,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +240,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +253,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +289,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -301,30 +327,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,26 +351,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,10 +375,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,37 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -444,67 +417,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,122 +601,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -846,6 +819,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -853,6 +837,54 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,61 +903,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,9 +929,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,137 +957,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,21 +1202,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1242,13 +1238,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1263,7 +1259,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1591,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1651,7 +1647,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
@@ -1660,7 +1656,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6"/>
@@ -1669,7 +1665,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5"/>
@@ -1678,7 +1674,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5"/>
@@ -1687,7 +1683,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5"/>
@@ -1851,189 +1847,101 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:8">
+    <row r="25" ht="18" spans="1:8">
       <c r="A25" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="39">
-        <v>2</v>
-      </c>
+      <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" ht="17.25" spans="1:8">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:8">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" ht="17.25" spans="1:8">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="39">
-        <v>2</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="40" t="s">
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
+    </row>
+    <row r="31" ht="17.25" spans="1:8">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:8">
-      <c r="A27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="39">
-        <v>3</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="40" t="s">
+      <c r="G31" s="51"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="33" ht="17.25" spans="1:1">
+      <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:8">
-      <c r="A28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="39">
-        <v>5</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="40" t="s">
+    <row r="34" ht="17.25" spans="1:1">
+      <c r="A34" s="56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:8">
-      <c r="A29" s="38" t="s">
+    <row r="35" ht="17.25" spans="1:1">
+      <c r="A35" s="57" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="39">
-        <v>3</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" ht="17.25" spans="1:8">
-      <c r="A30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="39">
-        <v>6</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" ht="17.25" spans="1:8">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" ht="17.25" spans="1:8">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" ht="17.25" spans="1:8">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" ht="17.25" spans="1:8">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="51"/>
-    </row>
-    <row r="37" ht="17.25" spans="1:1">
-      <c r="A37" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:1">
-      <c r="A38" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="1:1">
-      <c r="A39" s="53" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2072,34 +1980,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
